--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H2">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>280.153501395743</v>
+        <v>967.8797322334525</v>
       </c>
       <c r="R2">
-        <v>2521.381512561687</v>
+        <v>8710.917590101071</v>
       </c>
       <c r="S2">
-        <v>0.008167527040438355</v>
+        <v>0.0250401976214979</v>
       </c>
       <c r="T2">
-        <v>0.008167527040438355</v>
+        <v>0.0250401976214979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H3">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>362.8371209773885</v>
+        <v>852.7578571175058</v>
       </c>
       <c r="R3">
-        <v>3265.534088796496</v>
+        <v>7674.820714057551</v>
       </c>
       <c r="S3">
-        <v>0.01057806517531768</v>
+        <v>0.02206185805361716</v>
       </c>
       <c r="T3">
-        <v>0.01057806517531768</v>
+        <v>0.02206185805361716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H4">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>103.1529277785169</v>
+        <v>269.0693624811934</v>
       </c>
       <c r="R4">
-        <v>928.3763500066519</v>
+        <v>2421.62426233074</v>
       </c>
       <c r="S4">
-        <v>0.003007295367482504</v>
+        <v>0.006961143813676261</v>
       </c>
       <c r="T4">
-        <v>0.003007295367482504</v>
+        <v>0.006961143813676262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H5">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>227.5898008323609</v>
+        <v>357.726695847464</v>
       </c>
       <c r="R5">
-        <v>2048.308207491248</v>
+        <v>3219.540262627176</v>
       </c>
       <c r="S5">
-        <v>0.006635097698816524</v>
+        <v>0.009254814271020824</v>
       </c>
       <c r="T5">
-        <v>0.006635097698816525</v>
+        <v>0.009254814271020824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J6">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>8500.965499585682</v>
+        <v>12496.24632134645</v>
       </c>
       <c r="R6">
-        <v>76508.68949627114</v>
+        <v>112466.2168921181</v>
       </c>
       <c r="S6">
-        <v>0.2478350805604267</v>
+        <v>0.323292726350796</v>
       </c>
       <c r="T6">
-        <v>0.2478350805604267</v>
+        <v>0.3232927263507961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J7">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>11009.91360818539</v>
+        <v>11009.91360818538</v>
       </c>
       <c r="R7">
-        <v>99089.22247366849</v>
+        <v>99089.22247366846</v>
       </c>
       <c r="S7">
-        <v>0.3209803434893309</v>
+        <v>0.2848395346686364</v>
       </c>
       <c r="T7">
-        <v>0.320980343489331</v>
+        <v>0.2848395346686364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J8">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>3130.067894413794</v>
+        <v>3473.940944433009</v>
       </c>
       <c r="R8">
-        <v>28170.61104972415</v>
+        <v>31265.46849989708</v>
       </c>
       <c r="S8">
-        <v>0.09125323809506763</v>
+        <v>0.08987497607092577</v>
       </c>
       <c r="T8">
-        <v>0.09125323809506765</v>
+        <v>0.08987497607092579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J9">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>6905.974886248109</v>
+        <v>4618.59129616847</v>
       </c>
       <c r="R9">
-        <v>62153.77397623299</v>
+        <v>41567.32166551623</v>
       </c>
       <c r="S9">
-        <v>0.2013351121546136</v>
+        <v>0.1194884394594325</v>
       </c>
       <c r="T9">
-        <v>0.2013351121546136</v>
+        <v>0.1194884394594325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H10">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>1074.94238384347</v>
+        <v>1818.193855634183</v>
       </c>
       <c r="R10">
-        <v>9674.481454591227</v>
+        <v>16363.74470070765</v>
       </c>
       <c r="S10">
-        <v>0.03133860880986372</v>
+        <v>0.04703883338295985</v>
       </c>
       <c r="T10">
-        <v>0.03133860880986372</v>
+        <v>0.04703883338295985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H11">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>1392.19748397641</v>
+        <v>1601.933633403996</v>
       </c>
       <c r="R11">
-        <v>12529.7773557877</v>
+        <v>14417.40270063597</v>
       </c>
       <c r="S11">
-        <v>0.04058778683599331</v>
+        <v>0.04144392471613927</v>
       </c>
       <c r="T11">
-        <v>0.04058778683599332</v>
+        <v>0.04144392471613927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H12">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>395.7953533839255</v>
+        <v>505.4556318415733</v>
       </c>
       <c r="R12">
-        <v>3562.158180455329</v>
+        <v>4549.10068657416</v>
       </c>
       <c r="S12">
-        <v>0.0115389214667591</v>
+        <v>0.01307673721094026</v>
       </c>
       <c r="T12">
-        <v>0.0115389214667591</v>
+        <v>0.01307673721094026</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H13">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>873.2567032942885</v>
+        <v>672.001343478176</v>
       </c>
       <c r="R13">
-        <v>7859.310329648597</v>
+        <v>6048.012091303583</v>
       </c>
       <c r="S13">
-        <v>0.02545871353335343</v>
+        <v>0.01738547247370909</v>
       </c>
       <c r="T13">
-        <v>0.02545871353335344</v>
+        <v>0.01738547247370909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H14">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I14">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J14">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>12.67352581481467</v>
+        <v>3.689154572502222</v>
       </c>
       <c r="R14">
-        <v>114.061732333332</v>
+        <v>33.20239115252</v>
       </c>
       <c r="S14">
-        <v>0.0003694808891357485</v>
+        <v>9.544280810441319E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003694808891357484</v>
+        <v>9.544280810441322E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H15">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I15">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J15">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>16.41395019648267</v>
+        <v>3.250357914368889</v>
       </c>
       <c r="R15">
-        <v>147.725551768344</v>
+        <v>29.25322122932</v>
       </c>
       <c r="S15">
-        <v>0.0004785283118086265</v>
+        <v>8.409061767269815E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004785283118086265</v>
+        <v>8.409061767269816E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H16">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I16">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J16">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>4.666410687575334</v>
+        <v>1.025580385516667</v>
       </c>
       <c r="R16">
-        <v>41.997696188178</v>
+        <v>9.230223469650001</v>
       </c>
       <c r="S16">
-        <v>0.0001360434022158582</v>
+        <v>2.653298201710369E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001360434022158582</v>
+        <v>2.65329820171037E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H17">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I17">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J17">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>10.29566006374133</v>
+        <v>1.36350522874</v>
       </c>
       <c r="R17">
-        <v>92.66094057367199</v>
+        <v>12.27154705866</v>
       </c>
       <c r="S17">
-        <v>0.0003001571693761681</v>
+        <v>3.527549885439706E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003001571693761681</v>
+        <v>3.527549885439707E-05</v>
       </c>
     </row>
   </sheetData>
